--- a/assets/excel/Book2.xlsx
+++ b/assets/excel/Book2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPP\htdocs\OrgWebsite(Pre-Alpha)\assets\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,76 +27,76 @@
     <t xml:space="preserve">Head  </t>
   </si>
   <si>
-    <t>Jim</t>
-  </si>
-  <si>
-    <t>Alice</t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>Carol</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Eve</t>
-  </si>
-  <si>
-    <t>Mallory</t>
-  </si>
-  <si>
-    <t>Trudy</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Dave</t>
-  </si>
-  <si>
-    <t>Bill</t>
-  </si>
-  <si>
-    <t>Arthur</t>
-  </si>
-  <si>
-    <t>Abby</t>
-  </si>
-  <si>
-    <t>Claire</t>
-  </si>
-  <si>
-    <t>Judith</t>
-  </si>
-  <si>
-    <t>Camille</t>
-  </si>
-  <si>
-    <t>Dwight</t>
-  </si>
-  <si>
-    <t>Howard</t>
-  </si>
-  <si>
-    <t>Damian</t>
-  </si>
-  <si>
-    <t>Raven</t>
-  </si>
-  <si>
-    <t>Marcus</t>
-  </si>
-  <si>
-    <t>Dutch</t>
-  </si>
-  <si>
-    <t>Louis</t>
-  </si>
-  <si>
-    <t>Calli</t>
+    <t>John (CEO)</t>
+  </si>
+  <si>
+    <t>Dwight (Sales Head)</t>
+  </si>
+  <si>
+    <t>Howard (Sales)</t>
+  </si>
+  <si>
+    <t>Dutch (Sales)</t>
+  </si>
+  <si>
+    <t>Louis (Sales)</t>
+  </si>
+  <si>
+    <t>Calli (Sales)</t>
+  </si>
+  <si>
+    <t>Damian (Sales)</t>
+  </si>
+  <si>
+    <t>Raven (Sales)</t>
+  </si>
+  <si>
+    <t>Marcus (Sales)</t>
+  </si>
+  <si>
+    <t>Jim (IT Supervisor)</t>
+  </si>
+  <si>
+    <t>Bob (IT)</t>
+  </si>
+  <si>
+    <t>Carol (IT)</t>
+  </si>
+  <si>
+    <t>Alice (Accounting Head)</t>
+  </si>
+  <si>
+    <t>David (Accounting)</t>
+  </si>
+  <si>
+    <t>Eve (Accounting)</t>
+  </si>
+  <si>
+    <t>Mallory (Intern)</t>
+  </si>
+  <si>
+    <t>Trudy (Intern)</t>
+  </si>
+  <si>
+    <t>Dave (Production Head)</t>
+  </si>
+  <si>
+    <t>Camille (Production staff)</t>
+  </si>
+  <si>
+    <t>Abby (Helper)</t>
+  </si>
+  <si>
+    <t>Claire (Helper)</t>
+  </si>
+  <si>
+    <t>Judith (Helper)</t>
+  </si>
+  <si>
+    <t>Bill (Production staff)</t>
+  </si>
+  <si>
+    <t>Arthur (Production staff)</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -469,191 +469,191 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
